--- a/Docs/Bsides22 Pricing Sheet.xlsx
+++ b/Docs/Bsides22 Pricing Sheet.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlfugate/Documents/GitHub/Project-aragorn/Docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E05A78E4-4F46-4D45-BAEA-089035B1AF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECA6497-42BD-43E9-B544-36C9A3F4A259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{5B758B6A-9FE2-AA47-B03C-E456D1F7FCEE}"/>
+    <workbookView xWindow="-23000" yWindow="4960" windowWidth="22280" windowHeight="16720" xr2:uid="{5B758B6A-9FE2-AA47-B03C-E456D1F7FCEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,39 +34,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>BsidesKC Base Badge + Electronics</t>
-  </si>
-  <si>
-    <t>25 Volunteer 25 Village 15 Speaker 0 Kids 15 Organizer 30 Sponsor 50 Cerner 50 WireX 50 Sumo Logic</t>
-  </si>
-  <si>
-    <t>Cerner</t>
-  </si>
-  <si>
-    <t>WireX</t>
-  </si>
-  <si>
-    <t>Sumo Logic</t>
-  </si>
-  <si>
-    <t>Participant SAO + LEDs</t>
-  </si>
-  <si>
-    <t>Volunteer + LEDs</t>
-  </si>
-  <si>
-    <t>Village + LEDs</t>
-  </si>
-  <si>
-    <t>Speaker + LEDs</t>
-  </si>
-  <si>
-    <t>Organizer + LEDs</t>
-  </si>
-  <si>
-    <t>Sponsor  + LEDs</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>BsidesKC Participant Badge - Electronic</t>
+  </si>
+  <si>
+    <t>Participant SAO</t>
+  </si>
+  <si>
+    <t>Volunteer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Village </t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Organizer</t>
+  </si>
+  <si>
+    <t>Sponsor</t>
+  </si>
+  <si>
+    <t>Kids Badge - Electronic</t>
+  </si>
+  <si>
+    <t>Sponsor SAO - TGS</t>
+  </si>
+  <si>
+    <t>Sponsor SAO - Corelight</t>
+  </si>
+  <si>
+    <t>Sponsor SAO - Tines</t>
+  </si>
+  <si>
+    <t>Sponsor SAO - Red Canary</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Est Per Board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t>Version</t>
   </si>
 </sst>
 </file>
@@ -76,7 +91,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -111,12 +126,186 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -124,12 +313,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -445,180 +648,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A1564EA-DD57-7849-A633-7FE60F29C6C7}">
-  <dimension ref="A2:D15"/>
+  <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="208" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="3.296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" style="1"/>
+    <col min="4" max="4" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="2:5" ht="16.2" thickBot="1"/>
+    <row r="2" spans="2:5" ht="16.2" thickBot="1">
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C3" s="5">
+        <v>400</v>
+      </c>
+      <c r="D3" s="6">
+        <v>30</v>
+      </c>
+      <c r="E3" s="12">
+        <f>C3*D3</f>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>400</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" ref="E4:E14" si="0">C4*D4</f>
         <v>1000</v>
       </c>
-      <c r="C2" s="2">
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>35</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>25</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4">
+        <v>27</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2">
-        <f>B2*C2</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>400</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3:D11" si="0">B3*C3</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C11" s="3">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2">
+    <row r="12" spans="2:5">
+      <c r="B12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
+        <v>50</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="14">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
-        <v>15</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="13" spans="2:5">
+      <c r="B13" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3">
+        <v>50</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="16.2" thickBot="1">
+      <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1">
-        <v>30</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="C14" s="16">
         <v>50</v>
       </c>
-      <c r="C9" s="2">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1">
-        <v>50</v>
-      </c>
-      <c r="C11" s="2">
-        <v>4</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D12" s="3">
-        <f>SUM(D2:D11)</f>
-        <v>10040</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="D14" s="17">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="E15" s="10">
+        <f>SUM(E3:E14)</f>
+        <v>14720</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="20.399999999999999">
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Docs/Bsides22 Pricing Sheet.xlsx
+++ b/Docs/Bsides22 Pricing Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tier3tech-my.sharepoint.com/personal/kevin_badgepirates_com/Documents/Badges/Project-Gimli/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECA6497-42BD-43E9-B544-36C9A3F4A259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DECA6497-42BD-43E9-B544-36C9A3F4A259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC0055EF-F446-4446-A007-D60024A6CF9D}"/>
   <bookViews>
-    <workbookView xWindow="-23000" yWindow="4960" windowWidth="22280" windowHeight="16720" xr2:uid="{5B758B6A-9FE2-AA47-B03C-E456D1F7FCEE}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{5B758B6A-9FE2-AA47-B03C-E456D1F7FCEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -651,21 +651,21 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="3.296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.796875" style="1"/>
-    <col min="4" max="4" width="12.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.3125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.8125" style="1"/>
+    <col min="4" max="4" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.796875" style="1"/>
+    <col min="6" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="16.2" thickBot="1"/>
-    <row r="2" spans="2:5" ht="16.2" thickBot="1">
+    <row r="1" spans="2:5" ht="16.149999999999999" thickBot="1"/>
+    <row r="2" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B2" s="7" t="s">
         <v>15</v>
       </c>
@@ -684,14 +684,14 @@
         <v>0</v>
       </c>
       <c r="C3" s="5">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="D3" s="6">
         <v>30</v>
       </c>
       <c r="E3" s="12">
         <f>C3*D3</f>
-        <v>12000</v>
+        <v>11250</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -729,14 +729,14 @@
         <v>3</v>
       </c>
       <c r="C6" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4">
         <v>2</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -844,7 +844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="16.2" thickBot="1">
+    <row r="14" spans="2:5" ht="16.149999999999999" thickBot="1">
       <c r="B14" s="15" t="s">
         <v>10</v>
       </c>
@@ -862,10 +862,10 @@
     <row r="15" spans="2:5">
       <c r="E15" s="10">
         <f>SUM(E3:E14)</f>
-        <v>14720</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="20.399999999999999">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="20.25">
       <c r="B18" s="2"/>
     </row>
   </sheetData>
